--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il23a-Il23r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il23a-Il23r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.978609</v>
+        <v>0.5663796666666666</v>
       </c>
       <c r="H2">
-        <v>2.935827</v>
+        <v>1.699139</v>
       </c>
       <c r="I2">
-        <v>0.01701348816798059</v>
+        <v>0.005761481588340165</v>
       </c>
       <c r="J2">
-        <v>0.01701348816798059</v>
+        <v>0.005761481588340165</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.031382</v>
+        <v>0.2324893333333333</v>
       </c>
       <c r="N2">
-        <v>0.09414600000000001</v>
+        <v>0.697468</v>
       </c>
       <c r="O2">
-        <v>0.1663877219554525</v>
+        <v>0.920195895276243</v>
       </c>
       <c r="P2">
-        <v>0.1663877219554525</v>
+        <v>0.920195895276243</v>
       </c>
       <c r="Q2">
-        <v>0.030710707638</v>
+        <v>0.1316772311168889</v>
       </c>
       <c r="R2">
-        <v>0.276396368742</v>
+        <v>1.185095080052</v>
       </c>
       <c r="S2">
-        <v>0.002830835538786335</v>
+        <v>0.005301691708300269</v>
       </c>
       <c r="T2">
-        <v>0.002830835538786336</v>
+        <v>0.005301691708300268</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -605,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.978609</v>
+        <v>0.5663796666666666</v>
       </c>
       <c r="H3">
-        <v>2.935827</v>
+        <v>1.699139</v>
       </c>
       <c r="I3">
-        <v>0.01701348816798059</v>
+        <v>0.005761481588340165</v>
       </c>
       <c r="J3">
-        <v>0.01701348816798059</v>
+        <v>0.005761481588340165</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1572256666666667</v>
+        <v>0.02016266666666667</v>
       </c>
       <c r="N3">
-        <v>0.471677</v>
+        <v>0.060488</v>
       </c>
       <c r="O3">
-        <v>0.8336122780445475</v>
+        <v>0.07980410472375705</v>
       </c>
       <c r="P3">
-        <v>0.8336122780445476</v>
+        <v>0.07980410472375705</v>
       </c>
       <c r="Q3">
-        <v>0.153862452431</v>
+        <v>0.01141972442577778</v>
       </c>
       <c r="R3">
-        <v>1.384762071879</v>
+        <v>0.102777519832</v>
       </c>
       <c r="S3">
-        <v>0.01418265262919425</v>
+        <v>0.0004597898800398967</v>
       </c>
       <c r="T3">
-        <v>0.01418265262919426</v>
+        <v>0.0004597898800398966</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +649,13 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -673,40 +670,40 @@
         <v>0.64754</v>
       </c>
       <c r="I4">
-        <v>0.003752576064016766</v>
+        <v>0.00219569428264185</v>
       </c>
       <c r="J4">
-        <v>0.003752576064016767</v>
+        <v>0.00219569428264185</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.031382</v>
+        <v>0.2324893333333333</v>
       </c>
       <c r="N4">
-        <v>0.09414600000000001</v>
+        <v>0.697468</v>
       </c>
       <c r="O4">
-        <v>0.1663877219554525</v>
+        <v>0.920195895276243</v>
       </c>
       <c r="P4">
-        <v>0.1663877219554525</v>
+        <v>0.920195895276243</v>
       </c>
       <c r="Q4">
-        <v>0.006773700093333333</v>
+        <v>0.05018204763555555</v>
       </c>
       <c r="R4">
-        <v>0.06096330084000001</v>
+        <v>0.45163842872</v>
       </c>
       <c r="S4">
-        <v>0.0006243825827563079</v>
+        <v>0.002020468866168545</v>
       </c>
       <c r="T4">
-        <v>0.0006243825827563082</v>
+        <v>0.002020468866168545</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +711,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -735,40 +732,40 @@
         <v>0.64754</v>
       </c>
       <c r="I5">
-        <v>0.003752576064016766</v>
+        <v>0.00219569428264185</v>
       </c>
       <c r="J5">
-        <v>0.003752576064016767</v>
+        <v>0.00219569428264185</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1572256666666667</v>
+        <v>0.02016266666666667</v>
       </c>
       <c r="N5">
-        <v>0.471677</v>
+        <v>0.060488</v>
       </c>
       <c r="O5">
-        <v>0.8336122780445475</v>
+        <v>0.07980410472375705</v>
       </c>
       <c r="P5">
-        <v>0.8336122780445476</v>
+        <v>0.07980410472375705</v>
       </c>
       <c r="Q5">
-        <v>0.03393663606444445</v>
+        <v>0.004352044391111111</v>
       </c>
       <c r="R5">
-        <v>0.30542972458</v>
+        <v>0.03916839952</v>
       </c>
       <c r="S5">
-        <v>0.003128193481260458</v>
+        <v>0.0001752254164733048</v>
       </c>
       <c r="T5">
-        <v>0.003128193481260459</v>
+        <v>0.0001752254164733048</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +773,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.910797666666667</v>
+      </c>
+      <c r="H6">
+        <v>8.732393</v>
+      </c>
+      <c r="I6">
+        <v>0.0296100092409453</v>
+      </c>
+      <c r="J6">
+        <v>0.02961000924094529</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>1.567111333333333</v>
-      </c>
-      <c r="H6">
-        <v>4.701334</v>
-      </c>
-      <c r="I6">
-        <v>0.02724482416120734</v>
-      </c>
-      <c r="J6">
-        <v>0.02724482416120734</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M6">
-        <v>0.031382</v>
+        <v>0.2324893333333333</v>
       </c>
       <c r="N6">
-        <v>0.09414600000000001</v>
+        <v>0.697468</v>
       </c>
       <c r="O6">
-        <v>0.1663877219554525</v>
+        <v>0.920195895276243</v>
       </c>
       <c r="P6">
-        <v>0.1663877219554525</v>
+        <v>0.920195895276243</v>
       </c>
       <c r="Q6">
-        <v>0.04917908786266666</v>
+        <v>0.6767294089915555</v>
       </c>
       <c r="R6">
-        <v>0.442611790764</v>
+        <v>6.090564680923999</v>
       </c>
       <c r="S6">
-        <v>0.00453320422726016</v>
+        <v>0.02724700896260949</v>
       </c>
       <c r="T6">
-        <v>0.004533204227260162</v>
+        <v>0.02724700896260948</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +835,61 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.567111333333333</v>
+        <v>2.910797666666667</v>
       </c>
       <c r="H7">
-        <v>4.701334</v>
+        <v>8.732393</v>
       </c>
       <c r="I7">
-        <v>0.02724482416120734</v>
+        <v>0.0296100092409453</v>
       </c>
       <c r="J7">
-        <v>0.02724482416120734</v>
+        <v>0.02961000924094529</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1572256666666667</v>
+        <v>0.02016266666666667</v>
       </c>
       <c r="N7">
-        <v>0.471677</v>
+        <v>0.060488</v>
       </c>
       <c r="O7">
-        <v>0.8336122780445475</v>
+        <v>0.07980410472375705</v>
       </c>
       <c r="P7">
-        <v>0.8336122780445476</v>
+        <v>0.07980410472375705</v>
       </c>
       <c r="Q7">
-        <v>0.2463901241242222</v>
+        <v>0.05868944308711111</v>
       </c>
       <c r="R7">
-        <v>2.217511117118</v>
+        <v>0.528204987784</v>
       </c>
       <c r="S7">
-        <v>0.02271161993394718</v>
+        <v>0.002363000278335813</v>
       </c>
       <c r="T7">
-        <v>0.02271161993394719</v>
+        <v>0.002363000278335812</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +897,61 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>94.008606</v>
+      </c>
+      <c r="H8">
+        <v>282.025818</v>
+      </c>
+      <c r="I8">
+        <v>0.9562999600642293</v>
+      </c>
+      <c r="J8">
+        <v>0.9562999600642292</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G8">
-        <v>0.4075803333333334</v>
-      </c>
-      <c r="H8">
-        <v>1.222741</v>
-      </c>
-      <c r="I8">
-        <v>0.007085938488883969</v>
-      </c>
-      <c r="J8">
-        <v>0.00708593848888397</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M8">
-        <v>0.031382</v>
+        <v>0.2324893333333333</v>
       </c>
       <c r="N8">
-        <v>0.09414600000000001</v>
+        <v>0.697468</v>
       </c>
       <c r="O8">
-        <v>0.1663877219554525</v>
+        <v>0.920195895276243</v>
       </c>
       <c r="P8">
-        <v>0.1663877219554525</v>
+        <v>0.920195895276243</v>
       </c>
       <c r="Q8">
-        <v>0.01279068602066667</v>
+        <v>21.855998136536</v>
       </c>
       <c r="R8">
-        <v>0.115116174186</v>
+        <v>196.703983228824</v>
       </c>
       <c r="S8">
-        <v>0.001179013163081865</v>
+        <v>0.8799832979039389</v>
       </c>
       <c r="T8">
-        <v>0.001179013163081865</v>
+        <v>0.8799832979039388</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +959,61 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4075803333333334</v>
+        <v>94.008606</v>
       </c>
       <c r="H9">
-        <v>1.222741</v>
+        <v>282.025818</v>
       </c>
       <c r="I9">
-        <v>0.007085938488883969</v>
+        <v>0.9562999600642293</v>
       </c>
       <c r="J9">
-        <v>0.00708593848888397</v>
+        <v>0.9562999600642292</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1572256666666667</v>
+        <v>0.02016266666666667</v>
       </c>
       <c r="N9">
-        <v>0.471677</v>
+        <v>0.060488</v>
       </c>
       <c r="O9">
-        <v>0.8336122780445475</v>
+        <v>0.07980410472375705</v>
       </c>
       <c r="P9">
-        <v>0.8336122780445476</v>
+        <v>0.07980410472375705</v>
       </c>
       <c r="Q9">
-        <v>0.06408208962855556</v>
+        <v>1.895464186576</v>
       </c>
       <c r="R9">
-        <v>0.5767388066570001</v>
+        <v>17.059177679184</v>
       </c>
       <c r="S9">
-        <v>0.005906925325802104</v>
+        <v>0.07631666216029045</v>
       </c>
       <c r="T9">
-        <v>0.005906925325802105</v>
+        <v>0.07631666216029044</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1021,61 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>53.71010233333333</v>
+        <v>0.6028873333333333</v>
       </c>
       <c r="H10">
-        <v>161.130307</v>
+        <v>1.808662</v>
       </c>
       <c r="I10">
-        <v>0.9337704747751076</v>
+        <v>0.00613285482384343</v>
       </c>
       <c r="J10">
-        <v>0.9337704747751077</v>
+        <v>0.006132854823843428</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.031382</v>
+        <v>0.2324893333333333</v>
       </c>
       <c r="N10">
-        <v>0.09414600000000001</v>
+        <v>0.697468</v>
       </c>
       <c r="O10">
-        <v>0.1663877219554525</v>
+        <v>0.920195895276243</v>
       </c>
       <c r="P10">
-        <v>0.1663877219554525</v>
+        <v>0.920195895276243</v>
       </c>
       <c r="Q10">
-        <v>1.685530431424667</v>
+        <v>0.1401648742017778</v>
       </c>
       <c r="R10">
-        <v>15.169773882822</v>
+        <v>1.261483867816</v>
       </c>
       <c r="S10">
-        <v>0.1553679421270915</v>
+        <v>0.005643427835225831</v>
       </c>
       <c r="T10">
-        <v>0.1553679421270915</v>
+        <v>0.005643427835225829</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1083,61 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.6028873333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.808662</v>
+      </c>
+      <c r="I11">
+        <v>0.00613285482384343</v>
+      </c>
+      <c r="J11">
+        <v>0.006132854823843428</v>
+      </c>
+      <c r="K11">
         <v>1</v>
       </c>
-      <c r="G11">
-        <v>53.71010233333333</v>
-      </c>
-      <c r="H11">
-        <v>161.130307</v>
-      </c>
-      <c r="I11">
-        <v>0.9337704747751076</v>
-      </c>
-      <c r="J11">
-        <v>0.9337704747751077</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.1572256666666667</v>
+        <v>0.02016266666666667</v>
       </c>
       <c r="N11">
-        <v>0.471677</v>
+        <v>0.060488</v>
       </c>
       <c r="O11">
-        <v>0.8336122780445475</v>
+        <v>0.07980410472375705</v>
       </c>
       <c r="P11">
-        <v>0.8336122780445476</v>
+        <v>0.07980410472375705</v>
       </c>
       <c r="Q11">
-        <v>8.444606646093222</v>
+        <v>0.01215581633955556</v>
       </c>
       <c r="R11">
-        <v>76.001459814839</v>
+        <v>0.109402347056</v>
       </c>
       <c r="S11">
-        <v>0.7784025326480161</v>
+        <v>0.0004894269886175997</v>
       </c>
       <c r="T11">
-        <v>0.7784025326480163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.6403483333333333</v>
-      </c>
-      <c r="H12">
-        <v>1.921045</v>
-      </c>
-      <c r="I12">
-        <v>0.01113269834280367</v>
-      </c>
-      <c r="J12">
-        <v>0.01113269834280367</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.031382</v>
-      </c>
-      <c r="N12">
-        <v>0.09414600000000001</v>
-      </c>
-      <c r="O12">
-        <v>0.1663877219554525</v>
-      </c>
-      <c r="P12">
-        <v>0.1663877219554525</v>
-      </c>
-      <c r="Q12">
-        <v>0.02009541139666667</v>
-      </c>
-      <c r="R12">
-        <v>0.18085870257</v>
-      </c>
-      <c r="S12">
-        <v>0.001852344316476344</v>
-      </c>
-      <c r="T12">
-        <v>0.001852344316476344</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.6403483333333333</v>
-      </c>
-      <c r="H13">
-        <v>1.921045</v>
-      </c>
-      <c r="I13">
-        <v>0.01113269834280367</v>
-      </c>
-      <c r="J13">
-        <v>0.01113269834280367</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.1572256666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.471677</v>
-      </c>
-      <c r="O13">
-        <v>0.8336122780445475</v>
-      </c>
-      <c r="P13">
-        <v>0.8336122780445476</v>
-      </c>
-      <c r="Q13">
-        <v>0.1006791936072222</v>
-      </c>
-      <c r="R13">
-        <v>0.906112742465</v>
-      </c>
-      <c r="S13">
-        <v>0.009280354026327325</v>
-      </c>
-      <c r="T13">
-        <v>0.009280354026327329</v>
+        <v>0.0004894269886175996</v>
       </c>
     </row>
   </sheetData>
